--- a/tab.xlsx
+++ b/tab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\tableToBlank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\tableToForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>row 1 col 1</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>row 3 col 2</t>
+  </si>
+  <si>
+    <t>col 1</t>
+  </si>
+  <si>
+    <t>col 2</t>
+  </si>
+  <si>
+    <t>col 3</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,34 +391,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/tab.xlsx
+++ b/tab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\tableToBlank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\tableToForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>row 1 col 1</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>row 3 col 2</t>
+  </si>
+  <si>
+    <t>col 1</t>
+  </si>
+  <si>
+    <t>col 2</t>
+  </si>
+  <si>
+    <t>col 3</t>
   </si>
 </sst>
 </file>
@@ -369,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -382,38 +391,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tab.xlsx
+++ b/tab.xlsx
@@ -53,13 +53,13 @@
     <t>row 3 col 2</t>
   </si>
   <si>
-    <t>col 1</t>
-  </si>
-  <si>
-    <t>col 2</t>
-  </si>
-  <si>
-    <t>col 3</t>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
